--- a/签到系统Web接口文档.xlsx
+++ b/签到系统Web接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="14880" windowHeight="7620" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="9525" windowHeight="2100" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1 添加发布会接口" sheetId="1" r:id="rId1"/>
@@ -344,22 +344,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>错误码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://127.0.0.1:8002/api/add_event/
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://127.0.0.1:8001/api/get_event_list/
 http://127.0.0.1:8001/api/get_event_list/?eid=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://127.0.0.1:8002/api/get_guest_list
-http://127.0.0.1:8002/api/get_guest_list/?eid=1&amp;phone=13511001101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">http://127.0.0.1:8002/api/add_event/
-</t>
+http://127.0.0.1:8001/api/get_guest_list/?eid=1&amp;phone=13511001101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -968,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1005,7 +1005,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1034,7 +1034,7 @@
     </row>
     <row r="8" spans="1:2" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>48</v>
@@ -1152,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1189,7 +1189,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -1334,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/签到系统Web接口文档.xlsx
+++ b/签到系统Web接口文档.xlsx
@@ -496,74 +496,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1153,7 +1085,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
